--- a/excel_template/豚枝肉相場_Summary.xlsx
+++ b/excel_template/豚枝肉相場_Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\SATOSHI\ICHIKAWA\70_個人開発\50_MyProject\豚枝肉相場のデータ分析と相場予想プログラム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiko\workspace\ChikusanDataBaseSystem\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F997D-6F17-4113-8701-A6B9D8CB5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CDD58-7E1D-4EDE-B2C0-F00B637432B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1095" windowWidth="24255" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="255" windowWidth="27465" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="month_summary" sheetId="1" r:id="rId1"/>
@@ -41,19 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全国と畜頭数</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンコク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>東京</t>
     <rPh sb="0" eb="2">
       <t>トウキョウ</t>
@@ -120,6 +107,32 @@
     <t>等外(税込)</t>
     <rPh sb="0" eb="2">
       <t>トウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全国と畜頭数
+(前日分集計結果)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -248,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -256,6 +269,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -543,7 +559,7 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="7" width="8.625" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
@@ -568,104 +584,104 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
       <c r="T1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="37.5">
       <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="U2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="X2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
